--- a/エビデンス_3桁カンマ区切りなし.xlsx
+++ b/エビデンス_3桁カンマ区切りなし.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-amano\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D48A43-70DA-4CC3-82B3-CC415CE8A545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63069311-B1AA-4EE8-BB4E-2F37169D29E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="1-2" sheetId="2" r:id="rId2"/>
     <sheet name="1-3" sheetId="3" r:id="rId3"/>
     <sheet name="1-4" sheetId="4" r:id="rId4"/>
+    <sheet name="1-5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>テストケースID</t>
   </si>
@@ -49,25 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発生件数に3桁区切りのカンマが付いていない</t>
-    <rPh sb="0" eb="2">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AlertID、AreaID、FunctionCategoryDivisionに3桁区切りのカンマが付いていない</t>
     <rPh sb="41" eb="42">
       <t>ケタ</t>
@@ -82,13 +64,6 @@
   </si>
   <si>
     <t>IT-APP-1-1-3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他の項目（項目名の左隣に＃マークが付いているもの）の値も同様</t>
-    <rPh sb="30" eb="32">
-      <t>ドウヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -123,61 +98,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PC操作状況Dashboardの件数に3桁区切りのカンマが付いていない</t>
-    <rPh sb="2" eb="4">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IT-APP-1-2-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数値型のoperationCodeに3桁区切りのカンマが付いていない</t>
-    <rPh sb="0" eb="2">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他の項目（項目名の左隣に＃マークが付いているもの）の値にも3桁区切りのカンマが付いていない</t>
-    <rPh sb="32" eb="33">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -185,24 +106,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル操作・印刷状況DashboardのProcIdに3桁区切りのカンマが付いていない</t>
-    <rPh sb="29" eb="30">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IT-APP-1-4-1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>デバイス接続状況DashboardのtermAreaIdに3桁区切りのカンマが付いていない</t>
+    <t>数値型のoperationCodeに3桁区切りのカンマが付いている</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイス接続状況DashboardのtermAreaIdに3桁区切りのカンマが付いている</t>
     <rPh sb="30" eb="31">
       <t>ケタ</t>
     </rPh>
@@ -211,6 +138,142 @@
     </rPh>
     <rPh sb="39" eb="40">
       <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT-APP-1-5-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警告Dashboardの警告一覧のAlertID、AreaID、FunctionCategoryDivision以外のフィールド</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（フィールド名の左隣に＃マークが付いているもの）には、カンマが付いている</t>
+    <rPh sb="31" eb="32">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他の項目（項目名の左隣に＃マークが付いているもの）の値にも3桁区切りのカンマが付いている</t>
+    <rPh sb="32" eb="33">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル操作・印刷状況DashboardのProcIdに3桁区切りのカンマが付いている</t>
+    <rPh sb="29" eb="30">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC操作状況Dashboardの発生件数に3桁区切りのカンマが付いている</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警告Dashboardの操作一覧の発生件数に3桁区切りのカンマが付いている※件数が4桁以上になるように、表示期間を過去7日間から過去90日間に設定している</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニチカン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニチカン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -219,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +292,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -261,9 +331,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -287,21 +359,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>23112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38516</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209D951A-043B-4E15-AD06-80900884AFBC}"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94440262-60EE-458C-9F5C-EC19BF752867}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -317,8 +389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="480312"/>
-          <a:ext cx="9264650" cy="2758604"/>
+          <a:off x="0" y="3860800"/>
+          <a:ext cx="5270500" cy="2474942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -327,18 +399,62 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>78250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>113606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBA3FC3-39F4-4AC5-8540-5FD0EBE949C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="482601"/>
+          <a:ext cx="9000000" cy="2831405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>112012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
+      <xdr:colOff>346075</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -353,7 +469,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7766050" y="2169412"/>
+          <a:off x="7575550" y="2213862"/>
           <a:ext cx="371475" cy="199138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -393,61 +509,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED887874-5F08-4402-955E-03F45555D282}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="1411" t="38012" r="51728" b="29973"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3962400"/>
-          <a:ext cx="5060950" cy="2305050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -462,8 +535,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="863600" y="5302250"/>
-          <a:ext cx="3676650" cy="177800"/>
+          <a:off x="933450" y="5181600"/>
+          <a:ext cx="3886200" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -505,15 +578,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -528,7 +601,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="869950" y="4260850"/>
+          <a:off x="914400" y="4044950"/>
           <a:ext cx="3676650" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -571,15 +644,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:colOff>234950</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
+      <xdr:colOff>273050</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -594,7 +667,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="5924550"/>
+          <a:off x="895350" y="5886450"/>
           <a:ext cx="3676650" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -638,21 +711,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>36028</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>51037</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57D768B-060C-43F5-A0ED-936F5855DD9B}"/>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92816F23-4514-4304-85A3-2B2C56B423FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -660,15 +733,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect t="1" r="35793" b="-2"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6680201"/>
-          <a:ext cx="6311900" cy="213827"/>
+          <a:off x="0" y="7816851"/>
+          <a:ext cx="4178300" cy="235186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -679,23 +753,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD8E366-F495-4893-AE32-EE0025F5C5E9}"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159AB41A-3376-4D47-A5D6-54D33EC64FB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -703,7 +777,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="6718300"/>
+          <a:off x="482600" y="7854951"/>
           <a:ext cx="3676650" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -747,21 +821,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>44451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>51037</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92816F23-4514-4304-85A3-2B2C56B423FC}"/>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C7C713-02A0-4130-BC3F-CB40CB0BD07E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,16 +843,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="48742" t="51682" r="4221" b="11541"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7816851"/>
-          <a:ext cx="4178300" cy="235186"/>
+          <a:off x="0" y="8870950"/>
+          <a:ext cx="5080000" cy="2647950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -789,23 +862,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>82551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159AB41A-3376-4D47-A5D6-54D33EC64FB1}"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D454665-1E81-45F9-A11B-E0274970D757}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -813,8 +886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="482600" y="7854951"/>
-          <a:ext cx="3676650" cy="177800"/>
+          <a:off x="1930400" y="10274300"/>
+          <a:ext cx="368300" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -853,25 +926,149 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>195300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56382E71-3996-4D8C-85E6-859078FFB431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="527050"/>
+          <a:ext cx="11758650" cy="1892300"/>
+          <a:chOff x="0" y="527050"/>
+          <a:chExt cx="11758650" cy="1892300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="図 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0816A0EF-BB20-49DD-B520-767143D710C2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect t="62574" b="13216"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="533400"/>
+            <a:ext cx="11685246" cy="1885950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="図 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208CF656-F592-4EFA-9802-E2600D4DBA1D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:srcRect t="62177" r="65172" b="13216"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="158750" y="558800"/>
+            <a:ext cx="3892550" cy="1833398"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="図 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F996E7A5-B672-4BB4-8E1C-E133DF02BCB9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect l="66470" t="62574" b="13614"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7778750" y="527050"/>
+            <a:ext cx="3979900" cy="1884319"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>164459</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9324</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C7C713-02A0-4130-BC3F-CB40CB0BD07E}"/>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F32B4C-B1EC-4256-AEAF-A16C8DEF7BA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -879,15 +1076,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect l="48742" t="51682" r="4221" b="11541"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8870950"/>
-          <a:ext cx="5080000" cy="2647950"/>
+          <a:off x="0" y="3429000"/>
+          <a:ext cx="5123809" cy="1609524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -898,23 +1096,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>946150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D454665-1E81-45F9-A11B-E0274970D757}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EFE6A7-E817-4F42-A529-1B2FD99927BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -922,8 +1120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1930400" y="10274300"/>
-          <a:ext cx="368300" cy="152400"/>
+          <a:off x="1606550" y="1365250"/>
+          <a:ext cx="1346200" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -962,73 +1160,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D046C8-B265-4059-AB10-62D97838E304}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="3527" t="49742" r="64840" b="21859"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="800100"/>
-          <a:ext cx="3416300" cy="2044700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EFE6A7-E817-4F42-A529-1B2FD99927BC}"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91F2EFD-A52F-42EC-A5B3-C2BB41F05BE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1036,8 +1186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="577850" y="2012950"/>
-          <a:ext cx="1346200" cy="177800"/>
+          <a:off x="1238250" y="4686300"/>
+          <a:ext cx="3238500" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1076,69 +1226,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>562087</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>107438</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490B0F77-B91E-44F9-A87C-7AC00B8645DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3632200"/>
-          <a:ext cx="5521437" cy="2190238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91F2EFD-A52F-42EC-A5B3-C2BB41F05BE4}"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1A9EC0-16E3-43D6-9DA8-5B9DF761F73B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1146,8 +1252,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="749300" y="4540250"/>
-          <a:ext cx="2120900" cy="196850"/>
+          <a:off x="5099050" y="1327150"/>
+          <a:ext cx="1346200" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1186,25 +1292,91 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CCB547-C8F1-40B4-82FF-B95C27E4C938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9188450" y="1397000"/>
+          <a:ext cx="1117600" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>139701</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3C40D2-6FCD-4622-9527-DEA6A6BB6D5A}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6C2673-14D6-4D7A-9590-C96612B50F35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,15 +1385,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6686551"/>
-          <a:ext cx="3905251" cy="1225550"/>
+          <a:off x="0" y="5473700"/>
+          <a:ext cx="5498050" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1233,22 +1405,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>107949</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A951F24-9D53-4009-BB4A-49499B8C7C9F}"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53679A6A-E6DB-4B5B-B108-A792FA7F6C54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,8 +1428,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="965200" y="7645400"/>
-          <a:ext cx="2489200" cy="234949"/>
+          <a:off x="730250" y="5892800"/>
+          <a:ext cx="2381250" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1304,22 +1476,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30878</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142571</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542321</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579E15DA-0605-4A82-8CF1-13EE0FB3DC8E}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF54EF0-5A30-453E-92C4-C34EF87C943F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,8 +1507,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="457200"/>
-          <a:ext cx="6971428" cy="2428571"/>
+          <a:off x="12700" y="476250"/>
+          <a:ext cx="4828571" cy="1980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1348,15 +1520,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1371,7 +1543,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1460500" y="1574800"/>
+          <a:off x="831850" y="2120900"/>
           <a:ext cx="3962400" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1419,17 +1591,17 @@
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>634136</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>126821</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>40650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>193517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725AE590-D696-4F35-A077-E90ABF48747E}"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A99717F-F1F9-4A14-8DC3-26E5E8969E15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1446,7 +1618,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3498850"/>
-          <a:ext cx="6914286" cy="1428571"/>
+          <a:ext cx="5000000" cy="1266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1458,15 +1630,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>501650</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1481,8 +1653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1422400" y="4330700"/>
-          <a:ext cx="3962400" cy="419100"/>
+          <a:off x="1162050" y="4178300"/>
+          <a:ext cx="3556000" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1530,21 +1702,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>70244</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:colOff>618026</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>205276</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE398DA8-6FB3-476D-89D6-9B9292FD3EBA}"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9D24FE-C6A5-4616-9C28-97BAB22D528C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1560,8 +1732,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="615950"/>
-          <a:ext cx="4369194" cy="4406900"/>
+          <a:off x="0" y="5803900"/>
+          <a:ext cx="4916976" cy="4916976"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1570,18 +1742,62 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>221139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8645953-4B7C-492A-B1F5-DEB5A8C34A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="615114"/>
+          <a:ext cx="4368800" cy="4406625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1596,7 +1812,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="571500" y="1263650"/>
+          <a:off x="596900" y="1701800"/>
           <a:ext cx="1974850" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1639,15 +1855,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1662,7 +1878,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="3041650"/>
+          <a:off x="615950" y="3435350"/>
           <a:ext cx="1974850" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1705,15 +1921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1728,7 +1944,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="4686300"/>
+          <a:off x="571500" y="4768850"/>
           <a:ext cx="1974850" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1768,62 +1984,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>158337</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>17864</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238597FB-F8E1-4CA3-99C5-287456690E4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5734050"/>
-          <a:ext cx="4457287" cy="4799414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1838,7 +2010,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="6172200"/>
+          <a:off x="660400" y="7683500"/>
           <a:ext cx="1974850" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1880,16 +2052,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1904,7 +2076,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="539750" y="9036050"/>
+          <a:off x="692150" y="8267700"/>
           <a:ext cx="1974850" cy="177800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1947,14 +2119,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1970,8 +2142,123 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="558800" y="10191750"/>
+          <a:off x="609600" y="10420350"/>
           <a:ext cx="1974850" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>131527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD29D912-BBAB-4DB2-AD1E-A94AE963F064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="850901"/>
+          <a:ext cx="5454650" cy="1566626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC76DC4D-F030-4771-98BF-24F9681BBE8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="996950" y="1930400"/>
+          <a:ext cx="4311650" cy="298449"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2276,7 +2563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2294,8 +2581,8 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2308,38 +2595,33 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57DA3F1-37D5-425E-89AF-C92D6B1D9FFE}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2365,12 +2647,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2378,17 +2660,17 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>14</v>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2414,17 +2696,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2450,17 +2732,53 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED3DE55-37BD-4D6A-81CE-2FC72925EEE8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="13.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
